--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A177ABD4-11D4-4C0B-B8E0-F729741C9CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102EB67-0095-459A-9DC3-41DE54755765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>net time5.1</t>
   </si>
   <si>
-    <t>net time6.1</t>
-  </si>
-  <si>
     <t>net time7.1</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>net time5.5</t>
   </si>
   <si>
-    <t>net time5.6</t>
-  </si>
-  <si>
     <t>net time5.7</t>
   </si>
   <si>
@@ -188,6 +182,12 @@
   </si>
   <si>
     <t>net time5.9</t>
+  </si>
+  <si>
+    <t>echo yahm</t>
+  </si>
+  <si>
+    <t>echo yahm2</t>
   </si>
 </sst>
 </file>
@@ -619,16 +619,16 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -639,16 +639,16 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -659,16 +659,16 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -679,16 +679,16 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -696,19 +696,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -716,19 +716,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -736,19 +736,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -756,19 +756,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102EB67-0095-459A-9DC3-41DE54755765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A5551A-12CF-49F5-BDDD-777400B61A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>os version 1</t>
   </si>
@@ -28,166 +28,31 @@
     <t>os version 2</t>
   </si>
   <si>
-    <t>os version 3</t>
-  </si>
-  <si>
-    <t>os version 4</t>
-  </si>
-  <si>
-    <t>os version 5</t>
-  </si>
-  <si>
-    <t>os version 6</t>
-  </si>
-  <si>
-    <t>os version 7</t>
-  </si>
-  <si>
-    <t>os version 8</t>
-  </si>
-  <si>
-    <t>os version 9</t>
-  </si>
-  <si>
     <t>OS VERSION</t>
   </si>
   <si>
     <t>query 1</t>
   </si>
   <si>
-    <t>query 2</t>
-  </si>
-  <si>
-    <t>query 3</t>
-  </si>
-  <si>
-    <t>query 4</t>
-  </si>
-  <si>
-    <t>query 5</t>
-  </si>
-  <si>
     <t>net time1.1</t>
   </si>
   <si>
     <t>net time2.1</t>
   </si>
   <si>
-    <t>net time3.1</t>
-  </si>
-  <si>
-    <t>net time4.1</t>
-  </si>
-  <si>
-    <t>net time5.1</t>
-  </si>
-  <si>
-    <t>net time7.1</t>
-  </si>
-  <si>
-    <t>net time8.1</t>
-  </si>
-  <si>
-    <t>net time9.1</t>
-  </si>
-  <si>
-    <t>net time2.2</t>
-  </si>
-  <si>
-    <t>net time2.3</t>
-  </si>
-  <si>
-    <t>net time2.6</t>
-  </si>
-  <si>
-    <t>net time2.7</t>
-  </si>
-  <si>
-    <t>net time2.8</t>
-  </si>
-  <si>
-    <t>net time2.9</t>
-  </si>
-  <si>
-    <t>net time2.4</t>
-  </si>
-  <si>
-    <t>net time2.5</t>
-  </si>
-  <si>
-    <t>net time3.2</t>
-  </si>
-  <si>
-    <t>net time3.3</t>
-  </si>
-  <si>
-    <t>net time3.4</t>
-  </si>
-  <si>
-    <t>net time3.5</t>
-  </si>
-  <si>
-    <t>net time3.6</t>
-  </si>
-  <si>
-    <t>net time3.7</t>
-  </si>
-  <si>
-    <t>net time3.8</t>
-  </si>
-  <si>
-    <t>net time3.9</t>
-  </si>
-  <si>
-    <t>net time4.2</t>
-  </si>
-  <si>
-    <t>net time4.3</t>
-  </si>
-  <si>
-    <t>net time4.4</t>
-  </si>
-  <si>
-    <t>net time4.5</t>
-  </si>
-  <si>
-    <t>net time4.6</t>
-  </si>
-  <si>
-    <t>net time4.7</t>
-  </si>
-  <si>
-    <t>net time4.8</t>
-  </si>
-  <si>
-    <t>net time4.9</t>
-  </si>
-  <si>
-    <t>net time5.2</t>
-  </si>
-  <si>
-    <t>net time5.3</t>
-  </si>
-  <si>
-    <t>net time5.4</t>
-  </si>
-  <si>
-    <t>net time5.5</t>
-  </si>
-  <si>
-    <t>net time5.7</t>
-  </si>
-  <si>
-    <t>net time5.8</t>
-  </si>
-  <si>
-    <t>net time5.9</t>
-  </si>
-  <si>
-    <t>echo yahm</t>
-  </si>
-  <si>
-    <t>echo yahm2</t>
+    <t>HOSTNAME</t>
+  </si>
+  <si>
+    <t>ardom-as1</t>
+  </si>
+  <si>
+    <t>ardom-as2</t>
+  </si>
+  <si>
+    <t>TEST QUERY</t>
+  </si>
+  <si>
+    <t>TESTQUERY NAME</t>
   </si>
 </sst>
 </file>
@@ -563,212 +428,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A5551A-12CF-49F5-BDDD-777400B61A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD4C8A8-E751-4EE1-85D7-D65294562466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>os version 1</t>
-  </si>
-  <si>
-    <t>os version 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>OS VERSION</t>
   </si>
@@ -34,25 +28,22 @@
     <t>query 1</t>
   </si>
   <si>
-    <t>net time1.1</t>
-  </si>
-  <si>
-    <t>net time2.1</t>
-  </si>
-  <si>
-    <t>HOSTNAME</t>
-  </si>
-  <si>
-    <t>ardom-as1</t>
-  </si>
-  <si>
-    <t>ardom-as2</t>
-  </si>
-  <si>
-    <t>TEST QUERY</t>
-  </si>
-  <si>
-    <t>TESTQUERY NAME</t>
+    <t>query 2</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 10 Home</t>
+  </si>
+  <si>
+    <t>Windows Server 2003</t>
+  </si>
+  <si>
+    <t>cmd - dir \{{dns}}</t>
+  </si>
+  <si>
+    <t>cmd - dir \{{dns}}\temp\*.*</t>
+  </si>
+  <si>
+    <t>powershell - dir \{{dns}}</t>
   </si>
 </sst>
 </file>
@@ -428,54 +419,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD4C8A8-E751-4EE1-85D7-D65294562466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F79BF-8048-4B7D-B888-F1935DC45B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>OS VERSION</t>
   </si>
@@ -37,13 +37,22 @@
     <t>Windows Server 2003</t>
   </si>
   <si>
-    <t>cmd - dir \{{dns}}</t>
-  </si>
-  <si>
-    <t>cmd - dir \{{dns}}\temp\*.*</t>
-  </si>
-  <si>
     <t>powershell - dir \{{dns}}</t>
+  </si>
+  <si>
+    <t>cmd - dir</t>
+  </si>
+  <si>
+    <t>powershell - echo yahm</t>
+  </si>
+  <si>
+    <t>cmd - dir \\{{dns}}\temp\*.*</t>
+  </si>
+  <si>
+    <t>query 3</t>
+  </si>
+  <si>
+    <t>cmd - echo test</t>
   </si>
 </sst>
 </file>
@@ -419,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +446,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -446,18 +458,24 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F79BF-8048-4B7D-B888-F1935DC45B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D118DE1-9857-4F14-AED3-8B34673AE14C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>OS VERSION</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>cmd - echo test</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>cmd - echo test1</t>
+  </si>
+  <si>
+    <t>cmd - echo test2</t>
+  </si>
+  <si>
+    <t>powershell - echo yahm33</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -478,6 +490,31 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D118DE1-9857-4F14-AED3-8B34673AE14C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36377AAB-D4C7-4902-8010-8923D6FD504D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>OS VERSION</t>
   </si>
@@ -40,9 +40,6 @@
     <t>powershell - dir \{{dns}}</t>
   </si>
   <si>
-    <t>cmd - dir</t>
-  </si>
-  <si>
     <t>powershell - echo yahm</t>
   </si>
   <si>
@@ -58,13 +55,10 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>cmd - echo test1</t>
-  </si>
-  <si>
     <t>cmd - echo test2</t>
   </si>
   <si>
-    <t>powershell - echo yahm33</t>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -440,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -459,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -467,13 +461,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -481,38 +475,27 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -1,71 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36377AAB-D4C7-4902-8010-8923D6FD504D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19320" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>OS VERSION</t>
   </si>
   <si>
-    <t>query 1</t>
-  </si>
-  <si>
-    <t>query 2</t>
-  </si>
-  <si>
     <t>Microsoft Windows 10 Home</t>
   </si>
   <si>
     <t>Windows Server 2003</t>
   </si>
   <si>
-    <t>powershell - dir \{{dns}}</t>
-  </si>
-  <si>
-    <t>powershell - echo yahm</t>
-  </si>
-  <si>
     <t>cmd - dir \\{{dns}}\temp\*.*</t>
   </si>
   <si>
-    <t>query 3</t>
-  </si>
-  <si>
-    <t>cmd - echo test</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
-    <t>cmd - echo test2</t>
-  </si>
-  <si>
     <t>NONE</t>
+  </si>
+  <si>
+    <t>cmd - net time \\{{dns}}</t>
+  </si>
+  <si>
+    <t>dirtemp</t>
+  </si>
+  <si>
+    <t>nettime</t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise 2016 LTSB</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro for Workstations</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro Insider Preview</t>
+  </si>
+  <si>
+    <t>Windows 2000 Server</t>
+  </si>
+  <si>
+    <t>Windows 7 Professional</t>
+  </si>
+  <si>
+    <t>Windows 8 Consumer Preview</t>
+  </si>
+  <si>
+    <t>Windows Embedded Standard</t>
+  </si>
+  <si>
+    <t>Windows Server 2012 R2 Standard</t>
+  </si>
+  <si>
+    <t>Windows Server 2012 Standard Evaluation</t>
+  </si>
+  <si>
+    <t>Windows Server 2016 Standard</t>
+  </si>
+  <si>
+    <t>Windows Server 2019 Standard</t>
+  </si>
+  <si>
+    <t>Windows Server 8 Beta Datacenter</t>
+  </si>
+  <si>
+    <t>Windows Serverr 2008 Enterprise</t>
+  </si>
+  <si>
+    <t>Windows Serverr 2008 Standard</t>
+  </si>
+  <si>
+    <t>Windows XP Professional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,27 +218,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,24 +252,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,69 +427,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B767DF97-1536-4EC9-89DA-BE1B574D2094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19320" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +31,6 @@
     <t>Windows Server 2003</t>
   </si>
   <si>
-    <t>cmd - dir \\{{dns}}\temp\*.*</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -89,13 +92,16 @@
   </si>
   <si>
     <t>Windows XP Professional</t>
+  </si>
+  <si>
+    <t>cmd - cmd - dir \\{{dns}}\temp\*.*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +224,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +276,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,249 +469,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B767DF97-1536-4EC9-89DA-BE1B574D2094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19320" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +25,9 @@
     <t>Windows Server 2003</t>
   </si>
   <si>
+    <t>cmd - dir \\{{dns}}\temp\*.*</t>
+  </si>
+  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -92,16 +89,13 @@
   </si>
   <si>
     <t>Windows XP Professional</t>
-  </si>
-  <si>
-    <t>cmd - cmd - dir \\{{dns}}\temp\*.*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,27 +218,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,24 +252,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,249 +427,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="B5:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A674A-F1C6-4FBD-8AA4-2AF08D3B4890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19320" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>OS VERSION</t>
   </si>
@@ -89,13 +95,22 @@
   </si>
   <si>
     <t>Windows XP Professional</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>cmd - echo yahm</t>
+  </si>
+  <si>
+    <t>cmd - echo all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +233,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +285,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,21 +478,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C21"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +502,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -462,8 +516,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -473,8 +530,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -484,8 +544,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -495,8 +558,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -506,8 +572,11 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -517,8 +586,11 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -528,8 +600,11 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -539,8 +614,11 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -550,8 +628,11 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -561,8 +642,11 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -572,8 +656,11 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -583,8 +670,11 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -594,8 +684,11 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -605,8 +698,11 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -616,8 +712,11 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -627,8 +726,11 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -638,8 +740,11 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -649,8 +754,11 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -660,8 +768,11 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -669,6 +780,9 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>5</v>
       </c>
     </row>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A674A-F1C6-4FBD-8AA4-2AF08D3B4890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9D856-ED2D-4999-B76C-0485F9AAE777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t>cmd - echo yahm</t>
   </si>
   <si>
-    <t>cmd - echo all</t>
+    <t>cmd - echo all-all</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/servers_query_automation/queries.xlsx
+++ b/servers_query_automation/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ardom-1\servers_query_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9D856-ED2D-4999-B76C-0485F9AAE777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B473258-6EB2-48E0-8EFC-5570A189616D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>OS VERSION</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>cmd - echo yahm</t>
   </si>
   <si>
     <t>cmd - echo all-all</t>
@@ -482,7 +479,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -517,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -531,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -545,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
